--- a/bin/excel/SpanishEnglish-CASA4.xlsx
+++ b/bin/excel/SpanishEnglish-CASA4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF02CB1E-65D4-4E56-81A2-458ECD8B8FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7802B0-C39F-48D7-BED9-7A0B73C6901B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A464046D-1171-4240-AA16-58C64D92299F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
   <si>
     <t>español</t>
   </si>
@@ -218,6 +218,87 @@
   </si>
   <si>
     <t>handheld vacuum cleaner</t>
+  </si>
+  <si>
+    <t>short esl'iv shert</t>
+  </si>
+  <si>
+    <t>krein madol kit</t>
+  </si>
+  <si>
+    <t>u'ed estr'iep</t>
+  </si>
+  <si>
+    <t>sest'iol bim</t>
+  </si>
+  <si>
+    <t>her brosh</t>
+  </si>
+  <si>
+    <t>picsher freim</t>
+  </si>
+  <si>
+    <t>grouceri bag</t>
+  </si>
+  <si>
+    <t>tout bag</t>
+  </si>
+  <si>
+    <t>esp'aiderueb</t>
+  </si>
+  <si>
+    <t>plaiued</t>
+  </si>
+  <si>
+    <t>er matress</t>
+  </si>
+  <si>
+    <t>esp'un</t>
+  </si>
+  <si>
+    <t>tispun</t>
+  </si>
+  <si>
+    <t>pleit</t>
+  </si>
+  <si>
+    <t>sup bol</t>
+  </si>
+  <si>
+    <t>garbegsh bag</t>
+  </si>
+  <si>
+    <t>ekst'enshen cord</t>
+  </si>
+  <si>
+    <t>flat plog</t>
+  </si>
+  <si>
+    <t>escr'udraiver</t>
+  </si>
+  <si>
+    <t>di'oderent</t>
+  </si>
+  <si>
+    <t>kichein</t>
+  </si>
+  <si>
+    <t>shauer corten</t>
+  </si>
+  <si>
+    <t>chein</t>
+  </si>
+  <si>
+    <t>jendjel vakium cliner</t>
+  </si>
+  <si>
+    <t>escr'u</t>
+  </si>
+  <si>
+    <t>peint brosh</t>
+  </si>
+  <si>
+    <t>laptop est'eand</t>
   </si>
 </sst>
 </file>
@@ -584,7 +665,7 @@
   <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -612,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -626,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -640,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -654,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -668,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -682,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -696,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
@@ -710,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>59</v>
@@ -724,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -738,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
@@ -766,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
@@ -780,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
@@ -794,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
@@ -808,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
@@ -822,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>34</v>
@@ -836,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>35</v>
@@ -850,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>38</v>
@@ -864,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>39</v>
@@ -878,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>41</v>
@@ -892,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>44</v>
@@ -906,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>45</v>
@@ -920,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>46</v>
@@ -934,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>47</v>
@@ -948,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>55</v>
@@ -962,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>48</v>
@@ -976,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>49</v>
@@ -990,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>58</v>
@@ -1004,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>50</v>
